--- a/FacebookCrawl/DulieuCrawl.xlsx
+++ b/FacebookCrawl/DulieuCrawl.xlsx
@@ -437,7 +437,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A1"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -451,7 +451,135 @@
     <col width="40" customWidth="1" min="4" max="4"/>
     <col width="40" customWidth="1" min="5" max="5"/>
   </cols>
-  <sheetData/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="3" t="inlineStr">
+        <is>
+          <t>IDPost</t>
+        </is>
+      </c>
+      <c r="B1" s="3" t="inlineStr">
+        <is>
+          <t>TimePost</t>
+        </is>
+      </c>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>ContentPost</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="inlineStr">
+        <is>
+          <t>LinkPost</t>
+        </is>
+      </c>
+      <c r="E1" s="3" t="inlineStr">
+        <is>
+          <t>LinkImg</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="inlineStr">
+        <is>
+          <t>6693132107479168</t>
+        </is>
+      </c>
+      <c r="B2" s="5" t="n">
+        <v>45292.8480324074</v>
+      </c>
+      <c r="C2" s="4" t="inlineStr">
+        <is>
+          <t>It Jobs - [HCM]1. Fullstack Nodejs-Reactjs/ LeadSenior: 2,500 - 3,200 USLead: 3,000 - 4,200 US (For BE Nodejs)2. Support Consultant (IT Service Desk - Level 2/ 3)Range: 1,300 - 2,000 US (Tiếng Anh Tốt)Anh em hứng thú với job nhắn mình qua mes trực tiếp luôn nhen, mình gửi JD chi tiết ạ</t>
+        </is>
+      </c>
+      <c r="D2" s="4" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/6693132107479168</t>
+        </is>
+      </c>
+      <c r="E2" s="4" t="inlineStr">
+        <is>
+          <t>http://www.facebook.com/photo.php?fbid=317273051283689&amp;id=100090029898896&amp;set=gm.6693132107479168&amp;eav=AfbbpWUKD4-vVTunU5Ptk5BHeGeU5r3VPA5fBtHpdGdFAnWpv63YNOMI-Rmuo5Y3KrE&amp;paipv=0&amp;refid=18&amp;__tn__=EH-R</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="4" t="inlineStr">
+        <is>
+          <t>6693092477483131</t>
+        </is>
+      </c>
+      <c r="B3" s="5" t="n">
+        <v>45292.84835648148</v>
+      </c>
+      <c r="C3" s="4" t="inlineStr">
+        <is>
+          <t>#HCMC1. Product Owner ExpertRange: 3k - 5k US (8+ Years, Lending Domain)2. Product ManagerRange: 2,5k - 4k US (8+ Years, Finance Domain)3. Product Design Lead (More UX)Range: 2k - 3k US (Edtech Domain)Các bạn quan tâm job inbox mình qua FB mes trực tiếp nhen, mình tư vấn thêm nhé.</t>
+        </is>
+      </c>
+      <c r="D3" s="4" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/6693092477483131</t>
+        </is>
+      </c>
+      <c r="E3" s="4" t="inlineStr">
+        <is>
+          <t>http://www.facebook.com/photo.php?fbid=1316353233094478&amp;id=100041594411410&amp;set=gm.6693092477483131&amp;eav=AfYQgPKePVVFTL_zWug20PFjvvCyPhe4BD53LIP6wa-oV0KGOMiCiUQNRWcGrD-XmA0&amp;paipv=0&amp;refid=18&amp;__tn__=EH-R</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="4" t="inlineStr">
+        <is>
+          <t>6692295240896188</t>
+        </is>
+      </c>
+      <c r="B4" s="5" t="n">
+        <v>45292.59846064815</v>
+      </c>
+      <c r="C4" s="4" t="inlineStr">
+        <is>
+          <t>JUNIOR SALESFORCE DEVELOPER Chi tiết: https://cevn.com.vn/careers/JUNIOR-SALESFORCE-DEVELOPER/605.html ============================== http://cevn.com.vn/- 👉NHÀ TUYỂN DỤNG IT MỚI NHẤT 👉NHÀ TUYỂN DỤNG KINH DOANH MỨC LƯƠNG CAO NHẤT 👉TƯ VẤN HOÀN THIỆN CV VÀ PHỎNG VẤN TRÚNG TUYỂN &gt;90% 💢Hình thức nộp hồ sơ: Gửi CV online qua mail: tuyendung@cevn.com.vn. 📞📞Hotline: 0903266996 #TuyểndụngHàNội #Tuyểndụngtoànquốc #tuyểndụngHồChíMinh #Tìmviệclàm #Tuyểnlậptrìnhviên #Tuyểnkinhdoanh #Tuyểnkếtoán</t>
+        </is>
+      </c>
+      <c r="D4" s="4" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/6692295240896188</t>
+        </is>
+      </c>
+      <c r="E4" s="4" t="inlineStr">
+        <is>
+          <t>http://www.facebook.com/photo.php?fbid=1799415733810087&amp;id=100012250322219&amp;set=gm.6692295240896188&amp;eav=AfY-z55ndrYj69A88MzP2U9Y8yPiN3MA137fjc2IUFwD51-qH8R7UUhYl8z-tKqlorE&amp;paipv=0&amp;refid=18&amp;__tn__=EH-R</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="4" t="inlineStr">
+        <is>
+          <t>6692223464236699</t>
+        </is>
+      </c>
+      <c r="B5" s="5" t="n">
+        <v>45292.59856481481</v>
+      </c>
+      <c r="C5" s="4" t="inlineStr">
+        <is>
+          <t>TINH VÂN SOFTWARE OPEN JOB ONSITE HCM ✌JAVA DEVELOPER 🌳Yêu cầu chung: - Có kinh nghiệm từ 2,5+ năm làm Java (Web-API experience, Java 19, Java 17, Spring Boot 3.1.x, Web proxy: nginx, Library: Spring Security(SEC),Spring Session, Spring Cloud Vault,...) - Tư duy Logic - Tiếng Anh đọc hiểu 🌳Địa điểm làm việc: • HCM: Tôn Đức Thắng, Q1 (Nhận job đầu tháng 2.2024) • Phú Nhuận *** Phỏng vấn 2 vòng (có thể online) process Cv nhanh 😘😘 Quyền lợi: - Lương upto 26M ( thỏa thuận theo level) - Thưởng dự án lên tới 14.5 tháng lương/ năm - Review lương hàng năm hoặc đột xuất - Thưởng tất cả các ngày lễ (30/4, 1/5, sinh nhật, 2/9, cưới hỏi, tết dương lịch, tết truyền thống…) - Chế độ chăm sóc phụ nữ: thưởng lễ 20/10 – 8/3, gói thưởng sinh sản của riêng công ty... - Hưởng gói BHSK 24/7 - CLB bóng đá - Hỗ trợ các khóa học và tăng ngay 1 bậc lương khi nhận chứng chỉ 😘😘 Contact me: Email: kongplh@tinhvan.com Skype: Hkong (live:5d9db46a6169ad3f)</t>
+        </is>
+      </c>
+      <c r="D5" s="4" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/6692223464236699</t>
+        </is>
+      </c>
+      <c r="E5" s="4" t="inlineStr">
+        <is>
+          <t>http://www.facebook.com/photo.php?fbid=306898125674353&amp;id=100090625034860&amp;set=gm.6692223464236699&amp;eav=AfZGmFdTiCI1RFPGY_HmVCE4ArhrdMkJrDjZJuJmCjpGy0JYgdrDNixNFfdO7tqqkwo&amp;paipv=0&amp;refid=18&amp;__tn__=EH-R</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/FacebookCrawl/DulieuCrawl.xlsx
+++ b/FacebookCrawl/DulieuCrawl.xlsx
@@ -437,7 +437,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -451,135 +451,7 @@
     <col width="40" customWidth="1" min="4" max="4"/>
     <col width="40" customWidth="1" min="5" max="5"/>
   </cols>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="3" t="inlineStr">
-        <is>
-          <t>IDPost</t>
-        </is>
-      </c>
-      <c r="B1" s="3" t="inlineStr">
-        <is>
-          <t>TimePost</t>
-        </is>
-      </c>
-      <c r="C1" s="3" t="inlineStr">
-        <is>
-          <t>ContentPost</t>
-        </is>
-      </c>
-      <c r="D1" s="3" t="inlineStr">
-        <is>
-          <t>LinkPost</t>
-        </is>
-      </c>
-      <c r="E1" s="3" t="inlineStr">
-        <is>
-          <t>LinkImg</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="4" t="inlineStr">
-        <is>
-          <t>6693132107479168</t>
-        </is>
-      </c>
-      <c r="B2" s="5" t="n">
-        <v>45292.8480324074</v>
-      </c>
-      <c r="C2" s="4" t="inlineStr">
-        <is>
-          <t>It Jobs - [HCM]1. Fullstack Nodejs-Reactjs/ LeadSenior: 2,500 - 3,200 USLead: 3,000 - 4,200 US (For BE Nodejs)2. Support Consultant (IT Service Desk - Level 2/ 3)Range: 1,300 - 2,000 US (Tiếng Anh Tốt)Anh em hứng thú với job nhắn mình qua mes trực tiếp luôn nhen, mình gửi JD chi tiết ạ</t>
-        </is>
-      </c>
-      <c r="D2" s="4" t="inlineStr">
-        <is>
-          <t>https://www.facebook.com/6693132107479168</t>
-        </is>
-      </c>
-      <c r="E2" s="4" t="inlineStr">
-        <is>
-          <t>http://www.facebook.com/photo.php?fbid=317273051283689&amp;id=100090029898896&amp;set=gm.6693132107479168&amp;eav=AfbbpWUKD4-vVTunU5Ptk5BHeGeU5r3VPA5fBtHpdGdFAnWpv63YNOMI-Rmuo5Y3KrE&amp;paipv=0&amp;refid=18&amp;__tn__=EH-R</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="4" t="inlineStr">
-        <is>
-          <t>6693092477483131</t>
-        </is>
-      </c>
-      <c r="B3" s="5" t="n">
-        <v>45292.84835648148</v>
-      </c>
-      <c r="C3" s="4" t="inlineStr">
-        <is>
-          <t>#HCMC1. Product Owner ExpertRange: 3k - 5k US (8+ Years, Lending Domain)2. Product ManagerRange: 2,5k - 4k US (8+ Years, Finance Domain)3. Product Design Lead (More UX)Range: 2k - 3k US (Edtech Domain)Các bạn quan tâm job inbox mình qua FB mes trực tiếp nhen, mình tư vấn thêm nhé.</t>
-        </is>
-      </c>
-      <c r="D3" s="4" t="inlineStr">
-        <is>
-          <t>https://www.facebook.com/6693092477483131</t>
-        </is>
-      </c>
-      <c r="E3" s="4" t="inlineStr">
-        <is>
-          <t>http://www.facebook.com/photo.php?fbid=1316353233094478&amp;id=100041594411410&amp;set=gm.6693092477483131&amp;eav=AfYQgPKePVVFTL_zWug20PFjvvCyPhe4BD53LIP6wa-oV0KGOMiCiUQNRWcGrD-XmA0&amp;paipv=0&amp;refid=18&amp;__tn__=EH-R</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="4" t="inlineStr">
-        <is>
-          <t>6692295240896188</t>
-        </is>
-      </c>
-      <c r="B4" s="5" t="n">
-        <v>45292.59846064815</v>
-      </c>
-      <c r="C4" s="4" t="inlineStr">
-        <is>
-          <t>JUNIOR SALESFORCE DEVELOPER Chi tiết: https://cevn.com.vn/careers/JUNIOR-SALESFORCE-DEVELOPER/605.html ============================== http://cevn.com.vn/- 👉NHÀ TUYỂN DỤNG IT MỚI NHẤT 👉NHÀ TUYỂN DỤNG KINH DOANH MỨC LƯƠNG CAO NHẤT 👉TƯ VẤN HOÀN THIỆN CV VÀ PHỎNG VẤN TRÚNG TUYỂN &gt;90% 💢Hình thức nộp hồ sơ: Gửi CV online qua mail: tuyendung@cevn.com.vn. 📞📞Hotline: 0903266996 #TuyểndụngHàNội #Tuyểndụngtoànquốc #tuyểndụngHồChíMinh #Tìmviệclàm #Tuyểnlậptrìnhviên #Tuyểnkinhdoanh #Tuyểnkếtoán</t>
-        </is>
-      </c>
-      <c r="D4" s="4" t="inlineStr">
-        <is>
-          <t>https://www.facebook.com/6692295240896188</t>
-        </is>
-      </c>
-      <c r="E4" s="4" t="inlineStr">
-        <is>
-          <t>http://www.facebook.com/photo.php?fbid=1799415733810087&amp;id=100012250322219&amp;set=gm.6692295240896188&amp;eav=AfY-z55ndrYj69A88MzP2U9Y8yPiN3MA137fjc2IUFwD51-qH8R7UUhYl8z-tKqlorE&amp;paipv=0&amp;refid=18&amp;__tn__=EH-R</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="4" t="inlineStr">
-        <is>
-          <t>6692223464236699</t>
-        </is>
-      </c>
-      <c r="B5" s="5" t="n">
-        <v>45292.59856481481</v>
-      </c>
-      <c r="C5" s="4" t="inlineStr">
-        <is>
-          <t>TINH VÂN SOFTWARE OPEN JOB ONSITE HCM ✌JAVA DEVELOPER 🌳Yêu cầu chung: - Có kinh nghiệm từ 2,5+ năm làm Java (Web-API experience, Java 19, Java 17, Spring Boot 3.1.x, Web proxy: nginx, Library: Spring Security(SEC),Spring Session, Spring Cloud Vault,...) - Tư duy Logic - Tiếng Anh đọc hiểu 🌳Địa điểm làm việc: • HCM: Tôn Đức Thắng, Q1 (Nhận job đầu tháng 2.2024) • Phú Nhuận *** Phỏng vấn 2 vòng (có thể online) process Cv nhanh 😘😘 Quyền lợi: - Lương upto 26M ( thỏa thuận theo level) - Thưởng dự án lên tới 14.5 tháng lương/ năm - Review lương hàng năm hoặc đột xuất - Thưởng tất cả các ngày lễ (30/4, 1/5, sinh nhật, 2/9, cưới hỏi, tết dương lịch, tết truyền thống…) - Chế độ chăm sóc phụ nữ: thưởng lễ 20/10 – 8/3, gói thưởng sinh sản của riêng công ty... - Hưởng gói BHSK 24/7 - CLB bóng đá - Hỗ trợ các khóa học và tăng ngay 1 bậc lương khi nhận chứng chỉ 😘😘 Contact me: Email: kongplh@tinhvan.com Skype: Hkong (live:5d9db46a6169ad3f)</t>
-        </is>
-      </c>
-      <c r="D5" s="4" t="inlineStr">
-        <is>
-          <t>https://www.facebook.com/6692223464236699</t>
-        </is>
-      </c>
-      <c r="E5" s="4" t="inlineStr">
-        <is>
-          <t>http://www.facebook.com/photo.php?fbid=306898125674353&amp;id=100090625034860&amp;set=gm.6692223464236699&amp;eav=AfZGmFdTiCI1RFPGY_HmVCE4ArhrdMkJrDjZJuJmCjpGy0JYgdrDNixNFfdO7tqqkwo&amp;paipv=0&amp;refid=18&amp;__tn__=EH-R</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
+  <sheetData/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/FacebookCrawl/DulieuCrawl.xlsx
+++ b/FacebookCrawl/DulieuCrawl.xlsx
@@ -1,39 +1,186 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr/>
-  <workbookProtection/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PBL04_DUT_DoAnHeDieuHanhVaMangMayTinh\FacebookCrawl\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C25B9F0-6828-4F0A-9C3F-CC2996D10050}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="45">
+  <si>
+    <t>IDPost</t>
+  </si>
+  <si>
+    <t>TimePost</t>
+  </si>
+  <si>
+    <t>ContentPost</t>
+  </si>
+  <si>
+    <t>LinkPost</t>
+  </si>
+  <si>
+    <t>LinkImg</t>
+  </si>
+  <si>
+    <t>122127969914047593</t>
+  </si>
+  <si>
+    <t>💢KOI RESORT &amp; RESIDENCE ĐÀ NẴNG SẮP KHAI TRƯƠNG TỔ CHỨC NGÀY HỘI TUYỂN DỤNG THÁNG 1/2024💢 KOI RESORT &amp; RESIDENCE DA NANG là tổ hợp resort và khách sạn ven biển Đà Nẵng  theo tiêu chuẩn quốc tế 5 sao. Tổng diện tích 45.000 m2 với 19 căn Villa, 20 căn Bungalow, 135 phòng Hotel và 520 phòng Condotel.  🏵️Chúng tôi đang mở rộng cơ hội để tìm kiếm những ứng cử viên tiềm năng ở tất cả các bộ phận để tham gia vào đại gia đình KOI Resort.  TIỀN SẢNH - Nhân viên lễ tân - Nhân viên hành lý - Chăm sóc khách hàng NHÀ HÀNG - Nhân viên đón tiếp - Nhân viên pha chế - Nhân viên phục vụ BẾP - Tổ trưởng bếp - Tổ phó bếp - Nhân viên bếp - Tạp vụ KỸ THUẬT - Nhân viên âm thanh ánh sáng - Nhân viên kỹ thuật BẢO VỆ - Nhân viên bảo vệ - Nhân viên cứu hộ SPA - Trưởng bộ phận Spa - Nhân viên Spa - Nhân viên giải trí BUỒNG PHÒNG - Giám sát cây xanh - Nhân viên buồng phòng - Nhân viên phục vụ tầng - Nhân viên VSCC KINH DOANH - Nhân viên thiết kế - Nhân viên truyền thông - Nhân viên Marketing 🍀Tham gia ngày hội tuyển dụng của chúng tôi để: ✨ Khám phá cơ hội nghề nghiệp đa dạng. ✨ Gặp gỡ đồng nghiệp tương lai và làm quen với văn hóa làm việc của chúng tôi. ✨ Chia sẻ ý kiến, tìm hiểu thêm về dự án và mục tiêu của chúng tôi. ✨ Tạo ra một bước ngoặt quan trọng trong sự nghiệp của bạn. 📣Đừng bỏ lỡ cơ hội này. Tham gia ngay để trở thành một mảnh ghép của KOI.</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/122127969914047593</t>
+  </si>
+  <si>
+    <t>http://www.facebook.com/photo.php?fbid=122127969758047593&amp;id=61551427792837&amp;set=a.122094570770047593&amp;eav=AfbPchGXtSto4dpvoS-opKkG5VLmrpkVY7FQD_iigWSRysudD40CySfyZlZR-gCek3s&amp;paipv=0&amp;refid=52&amp;__tn__=EH-R</t>
+  </si>
+  <si>
+    <t>122127868466047593</t>
+  </si>
+  <si>
+    <t>CÔNG TY CỔ PHẦN PR.BUTCHERY TUYỂN DỤNG ------------------------- 👉 BỘ PHẬN NHÀ HÀNG ÂU 📌Giám Sát Nhà Hàng 📌Trưởng Ca Nhà Hàng 📌03 Thu Ngân Siêu Thị/Nhà Hàng (ưu tiên có kinh nghiệm) Ưu tiên fulltime, yêu cầu Tiếng anh 📌10 NV phục vụ Nhà Hàng (ưu tiên có kinh nghiệm, Tiếng Anh giao tiếp) 👉 BỘ PHẬN KẾ TOÁN 📌01 Kế toán Tổng Hợp (ưu tiên biết Thuế) 📌01 Kế toán Kho 👉 BỘ PHẬN BẾP 📌02 Bếp Chính Âu 📌02 Commis Phụ Bếp 💥YÊU CẦU CHUNG: 👉 Giới tính: Nam/Nữ/LGBT 👉 Sức khoẻ, tâm huyết, yêu công việc, có trách nhiệm, có tinh thần học hỏi và cầu tiến, trung thực. 👉Các vị trí Nhà hàng Âu Tiếng anh giao tiếp 📌 Thời gian làm việc: - Full time ca 8 tiếng - Ca gãy 8 tiếng - Part time 5 tiếng - Tuần off 1 ngày. 💥 Thưởng Lễ, Tết, thưởng doanh thu, hiệu quả công việc. 💥 Môi trường làm việc năng động, sáng tạo, vui vẻ, hoà đồng. 💥 Trở thành một người tử tế, có tâm ,yêu công việc, yêu cuộc sống khi làm việc tại đây. ----------------------</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/122127868466047593</t>
+  </si>
+  <si>
+    <t>http://www.facebook.com/photo.php?fbid=122127868250047593&amp;id=61551427792837&amp;set=a.122094570770047593&amp;eav=AfZGagEY4clufX88OyOUZn4W64XTcp9QVL6SDa0hgLgxqnaOYxV27M6YS4FwAyVGO-s&amp;paipv=0&amp;refid=52&amp;__tn__=EH-R</t>
+  </si>
+  <si>
+    <t>122127867680047593</t>
+  </si>
+  <si>
+    <t>HỆ THỐNG CỬA HÀNG IHUB ĐÀ NẴNG TUYỂN DỤNG 👉 NHÂN VIÊN TƯ VẤN BÁN HÀNG ( Số Lượng: 20 ) 👉 NHÂN VIÊN THU NGÂN ( Số Lượng: 10 ) 👉 NHÂN VIÊN KẾ TOÁN ( Số Lượng: 02 ) ------------------------- CHI TIẾT 👉 NHÂN VIÊN TƯ VẤN BÁN HÀNG ( Số Lượng: 20 ) 👉 NHÂN VIÊN THU NGÂN ( Số Lượng: 10 ) Địa điểm làm việc: 147-149 Nguyễn Văn Linh, Đà Nẵng hoặc 137-139 Hàm Nghi, Đà Nẵng YÊU CẦU CHUNG: - Giới tính: Nam/Nữ ( 18-25 ) - Sức khoẻ, tâm huyết, yêu công việc, có trách nhiệm, có tinh thần học hỏi và cầu tiến, trung thực. Thời gian làm việc: - Full time ca xoay 8 tiếng - Tuần off 1 ngày. Thưởng Lễ, Tết, thưởng doanh thu, hiệu quả công việc. Môi trường làm việc năng động, sáng tạo, vui vẻ, hoà đồng. --------------------------------- 👉𝐍𝐇𝐀̂𝐍 𝐕𝐈𝐄̂𝐍 KẾ TOÁN (SL: 02) - Kiểm tra , đối chiếu thu chi , hoá đơn bán hàng của cửa hàng. - Xuất , nhập , tồn hàng hoá cửa hàng - Các công việc theo sự phân công của người phụ trách Thời gian làm việc giờ hành chính - 7h45 – 12h - 14h - 18h MỨC LƯƠNG: – Thử việc : 4.5 triệu ( Tùy năng lực làm việc ) – Chính thức: Thoả thuận Địa điểm làm việc: 147-149 Nguyễn Văn Linh, Đà Nẵng -----------------------</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/122127867680047593</t>
+  </si>
+  <si>
+    <t>http://www.facebook.com/photo.php?fbid=122127867422047593&amp;id=61551427792837&amp;set=a.122094570770047593&amp;eav=AfatfkQBomuddv1DoWwod5tRJZnVDieknmrueH6JeGeN9bRX9N8GeU4rlWXuafvAqC8&amp;paipv=0&amp;refid=52&amp;__tn__=EH-R</t>
+  </si>
+  <si>
+    <t>122127857852047593</t>
+  </si>
+  <si>
+    <t>NĂM MỚI, TẾT ĐẾN, XUÂN SANG, CÙNG NHAU ỨNG TUYỂN VÀO NHÀ “MAISON RMI” Nhãn hàng CHARLES &amp; KEITH, Cần tuyển: - NHÂN VIÊN BÁN HÀNG – (NAM/ LGBT) – Charles &amp; Keith Lê Duẩn, Đà Nẵng  - NHÂN VIÊN THU NGÂN – Charles &amp; Keith Vincom Đà Nẵng Lương: 6.000.000 - 10.000.000 đ/tháng ** Chỉ cần bạn: - Tốt nghiệp THPT - Làm việc xoay ca, tăng ca theo yêu cầu của cửa hàng - Yêu thích thời trang - Năng động và nhiệt huyết - Không phỏng vấn ứng viên còn đang đi học ***Phúc lợi dành cho bạn khi là Maisonista: - Được hưởng thu nhập tốt từ lương + thưởng (theo doanh số). - Được hỗ trợ tiền ăn và tiền gửi xe. - Chính sách mua hàng ưu đãi dành riêng cho nhân viên. - Được thưởng tháng lương 13, thưởng các ngày Lễ/Tết theo quy định chung của công ty. - Được đào tạo về nghiệp vụ, kỹ năng cần thiết để trở thành nhân viên chuyên nghiệp.</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/122127857852047593</t>
+  </si>
+  <si>
+    <t>http://www.facebook.com/photo.php?fbid=122127857792047593&amp;id=61551427792837&amp;set=a.122094570770047593&amp;eav=Afb4z-qdP4Y5C-TKdbJz8CQmEpEhD1mKZMPPvFQuE6oxZeRF-DfdypV9WwpYDYhpuW8&amp;paipv=0&amp;refid=52&amp;__tn__=EH-R</t>
+  </si>
+  <si>
+    <t>122127831038047593</t>
+  </si>
+  <si>
+    <t>TAXI TẢI THUẬN THÀNH THÔNG BÁO TUYỂN DỤNG NHÂN VIÊN TRỰC ĐIỆN THOẠI Địa chỉ làm việc: 36 Ngô Gia Tự, Hải Châu, Đà Nẵng Yêu cầu: – Tốt nghiệp phổ thông trung học trở lên . – Sử dụng vi tính thành thạo . – Giọng nói dễ nghe. – Ưu tiên người Đà Nẵng, biết nhiều đường phố Đà Nẵng. Thời gian làm việc : giờ hành chính thu nhập ổn định, mức lương hấp dẫn. Nội dung trao đổi thêm khi được phỏng vấn Quyền lợi: – Thu nhập ổn định, mức lương hấp dẫn – Được đào tạo, nâng cao nghiệp vụ thường xuyên; – Thưởng Lễ Tết, xét tăng lương hàng năm. – Đóng BHXH, BHYT theo quy định của Nhà Nước – Thưởng 1 tháng lương cơ bản nếu làm đủ 12 tháng. – Đầy đủ các chế độ sinh nhật, hiếu hỉ, tham quan du lịch trong và ngoài nước</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/122127831038047593</t>
+  </si>
+  <si>
+    <t>http://www.facebook.com/photo.php?fbid=122127830942047593&amp;id=61551427792837&amp;set=a.122094570770047593&amp;eav=AfaML46vwX0lp07WAjOFoZq2YlqLwzSlNzIHMkXebTCsCVFm9jbcIxcmYICQNc46eUg&amp;paipv=0&amp;refid=52&amp;__tn__=EH-R</t>
+  </si>
+  <si>
+    <t>122127828626047593</t>
+  </si>
+  <si>
+    <t>EAS Kindergarten &amp; Afterschool  TUYỂN DỤNG GIÁO VỤ - PART TIME  Địa điểm làm việc: 114 Đỗ Đăng Đệ, Hoà Xuân, Cẩm Lệ, Đà Nẵng 1. MÔ TẢ CÔNG VIỆC: - Quan sát, ghi nhận hoạt động và tâm lý trẻ. - Quan sát, ghi nhận các hoạt động theo khung chương trình mỗi ngày tại trường. - Hỗ trợ giáo viên nước ngoài công tác in ấn tài liệu trước khi lên lớp - Quản lý Thời khoá biểu học sinh và giáo viên. - Hỗ trợ giáo viên nước ngoài và trợ giảng trong việc quản lí trẻ học. - Đón tiếp, tư vấn chương trình học và hỗ trợ phụ huynh học sinh trong suốt quá trình học. - Hỗ trợ công tác tuyển sinh và ngoại khoá. - Giờ làm việc:      T2 – T7: 17:30 – 20:30 2. YÊU CẦU: - Sinh viên đang theo học tại các Trường Đại học tại Đà Nẵng. - Yêu trẻ, tính cách nhiệt tình, hòa đồng, vui vẻ, tích cực.  - Có khả năng tính toán và ghi nhớ tốt, có thể làm việc đa nhiệm, biết sắp xếp tổ chức công việc cẩn thận, tỉ mỉ. - Có trách nhiệm cao, trung thực, chăm chỉ, ham học hỏi. - Nghe nói tiếng Anh cơ bản.  - Có kỹ năng sắp xếp công việc, quản trị thời gian. 3. QUYỀN LỢI: - Làm việc trong môi trường vui vẻ, hòa đồng, cầu tiến.   - Có môi trường thực tập tiếng Anh hàng ngày giúp phát triển kỹ năng giao tiếp tiếng Anh nhanh chóng. - Được đào tạo hướng dẫn tận tình trong công việc. - Có cơ hội trải nghiệm công việc trợ giảng hoặc giáo viên tiếng Anh (nếu có năng lực và nhu cầu). - Mức lương: 30 - 50k/ giờ. - Tăng lương hàng năm và theo số lượng học sinh. - Thưởng Lễ, Tết.  - Có cơ hội được giữ lại làm việc Full Time tại EAS sau khi tốt nghiệp Đại học - Có cơ hội đi công tác nước ngoài tại các trại hè Singapore, Philippines…</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/122127828626047593</t>
+  </si>
+  <si>
+    <t>http://www.facebook.com/photo.php?fbid=122127828578047593&amp;id=61551427792837&amp;set=a.122094570770047593&amp;eav=AfZiC9tQKTngrAv82BNmg4p4GNOUPdoIR5tBYxrRCZ-_oFQHUsg0O9pXk-U8_tHXkkQ&amp;paipv=0&amp;refid=52&amp;__tn__=EH-R</t>
+  </si>
+  <si>
+    <t>122127733016047593</t>
+  </si>
+  <si>
+    <t>🔥🧧🔥HIGHLANDS COFFEE ĐÀ NẴNG TUYỂN NHIỀU KHU VỰC 2024 - Highlands Coffee VTV8 (258 Bạch Đằng, Đà Nẵng) - Highlands Coffee 214 Trần Phú, Đà Nẵng - Highlands Coffee sân bay Đà Nẵng (khu vực sân bay Đà Nẵng) - Highlands Coffee Mường Thanh Hotel (115 Nguyễn Văn Linh, Đà Nẵng) 🔥Vị trí: Nhân viên Pha chế, Thu ngân, Bán hàng 🌷 THỜI GIAN LÀM VIỆC : ✔PARTIME 4H - 8H ✔FULLTIME 8H 🔥Yêu cầu công việc: - Ca làm linh hoạt và theo sự phân chia của quản lý - Có thể làm tết và các ngày lễ 🧧  - Giao tiếp tốt  🔥Quyền lợi: - Thu nhập hấp dẫn - Làm vào các ngày lễ, tết sẽ được hưởng theo chế độ của Công ty - Cơ hội đào tạo và thăng tiến rõ ràng</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/122127733016047593</t>
+  </si>
+  <si>
+    <t>http://www.facebook.com/photo.php?fbid=122127732998047593&amp;id=61551427792837&amp;set=a.122094570770047593&amp;eav=AfbuZp3hM9ItK5spSvexMMuWHARkZSeFGua51nUGNzsJZ69u3tFFiCV6hciwQG9gxio&amp;paipv=0&amp;refid=52&amp;__tn__=EH-R</t>
+  </si>
+  <si>
+    <t>122127728252047593</t>
+  </si>
+  <si>
+    <t>📩 Nhà Hàng Hải sản Haechi sắp khai trương cần tuyển Địa chỉ: 94 Võ Nguyên Giáp - Đà Nẵng 🤵Nhân viên sale TA 🤵Nhân viên phục vụ Fulltime 🤵‍♀️Nhân viên Lễ Tân - Nữ 🧑🏾‍✈️Nhân viên Bảo Vệ 🧑‍💻Nhân viên Thu ngân 🧑‍🦳Nhân viên tạp vụ 👩🏼‍💻Kế toán thu mua Nhà hàng đang chuẩn bị vào hoạt động nên cần một số lượng nhân viên rất lớn Yêu cầu: Nhanh nhẹn, có trách nhiệm trong công việc ( giao tiếp tiếng anh/hàn là lợi thế). Làm việc lâu dài &amp; có thể làm tết Thời gian làm việc: 10h-19h ( nghỉ 1t )  ; 10h-2h / 18h-22h ( nghỉ 4t ) ; 14h-22h Xoay ca linh hoạt nha Lương: 5.000.000 đ - 20.000.000 đ+ phụ cấp tiền ăn + thưởng + Tip</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/122127728252047593</t>
+  </si>
+  <si>
+    <t>http://www.facebook.com/photo.php?fbid=122127728198047593&amp;id=61551427792837&amp;set=a.122094570770047593&amp;eav=AfYgwgJo3-7StTHql66JM0OJDHV-bzmObwAcNk7IEUvSyhg8uaMH4Lf_patSKy0pn1c&amp;paipv=0&amp;refid=52&amp;__tn__=EH-R</t>
+  </si>
+  <si>
+    <t>122127725990047593</t>
+  </si>
+  <si>
+    <t>📣 Nhà hàng Kichi Kichi siêu thị Lotte Đà Nẵng nhắn tìm đồng đội 🤝 - 3 Phụ bếp nam nữ parttime - 3 Phục vụ nam nữ parttime ✔ Yêu cầu :  - Chăm chỉ, nhiệt tình, trách nhiệm trong công việc. - LÀM TẾT ĐƯỢC - Không cần kinh nghiệm, sẽ được đào tạo khi nhận việc. Xoay ca linh động, phù hợp với các bạn đang là sinh viên kiếm thêm thu nhập. Mức lương hấp dẫn : từ 23.000 đ/giờ  🏢 Địa điểm làm việc : Kichi kichi Lotte, Đà nẵng - Siêu thị Lotte 6 Nại Nam, Hoà Cường Bắc, Hải Châu, Đà Nẵng</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/122127725990047593</t>
+  </si>
+  <si>
+    <t>http://www.facebook.com/photo.php?fbid=122127725948047593&amp;id=61551427792837&amp;set=a.122094570770047593&amp;eav=AfZd_yKX3STdcIYZWY8rQSCXUgZ-3hAGID2LW7i_hLSEZjLJlr1sKNmJGdmbmmm4lOo&amp;paipv=0&amp;refid=52&amp;__tn__=EH-R</t>
+  </si>
+  <si>
+    <t>122127725420047593</t>
+  </si>
+  <si>
+    <t>TUTIMART - 170 LÊ THANH NGHỊ, HẢI CHÂU, ĐÀ NẴNG  Vị Trí Tuyển Dụng: NHÂN VIÊN BÁN HÀNG Mô Tả Công Việc: * Làm xoay ca (Từ 7h30 Sáng đến 3g30 Chiều và 14g đến 21h15 ) * Tư Vấn Bán Hàng tại cửa hàng * Check inbox * Sắp xếp, dọn dẹp, gọn gàng hàng hoá. * Đảm bảo an toàn cửa hàng. Yêu Cầu: * KHÔNG YÊU CẦU KINH NGHIỆM - ĐÀO TẠO KHI NHẬN VIỆC * Nữ từ 20 - 30 tuổi * Giao tiếp tốt - năng động vui vẻ * Trung thực, siêng năng, chịu khó, tự giác, tích cực, nghiêm túc. * Một tuần nghỉ 1 ngày (tự chọn) **** Làm được đến 29 TẾT và sau TẾT từ mùng 4 Quyền lợi: * Thưởng Lễ Tết, lương tháng 13 *Lương từ 4tr500-6tr * CÓ CHẾ ĐỘ NHÂN LƯƠNG THƯỞNG TẾT --TRAO ĐỔI THÊM KHI PHỎNG VẤN---</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/122127725420047593</t>
+  </si>
+  <si>
+    <t>http://www.facebook.com/photo.php?fbid=122127725354047593&amp;id=61551427792837&amp;set=a.122094570770047593&amp;eav=AfbulpL7cSWrRfEL3JXF9A4A5VACvoCq8euCAD3lwBnbghF2HqjOL2IwTLyqG8JZ06I&amp;paipv=0&amp;refid=52&amp;__tn__=EH-R</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
   </numFmts>
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -48,103 +195,52 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+  <cellXfs count="5">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -432,26 +528,206 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:E11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col width="40" customWidth="1" min="1" max="1"/>
-    <col width="40" customWidth="1" min="2" max="2"/>
-    <col width="40" customWidth="1" min="3" max="3"/>
-    <col width="40" customWidth="1" min="4" max="4"/>
-    <col width="40" customWidth="1" min="5" max="5"/>
+    <col min="1" max="5" width="40" customWidth="1"/>
   </cols>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="409.6" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="3">
+        <v>45295.392893518518</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="3">
+        <v>45294.643217592587</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" s="3">
+        <v>45294.64335648148</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" s="3">
+        <v>45294.601840277777</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" s="3">
+        <v>45294.364583333343</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B7" s="3">
+        <v>45294.348611111112</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B8" s="3">
+        <v>45293.70208333333</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B9" s="3">
+        <v>45293.678472222222</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B10" s="3">
+        <v>45293.666666666657</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B11" s="3">
+        <v>45293.659722222219</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>